--- a/inst/models/growth_continuous.xlsx
+++ b/inst/models/growth_continuous.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -97,10 +97,13 @@
     <t xml:space="preserve">organisms in inflow</t>
   </si>
   <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
     <t xml:space="preserve">dummy</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">dummy &lt;- function() { NULL }</t>
   </si>
   <si>
     <t xml:space="preserve">rate</t>
@@ -144,7 +147,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -165,6 +168,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -220,7 +230,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,10 +322,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.44"/>
   </cols>
@@ -381,10 +391,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -500,14 +510,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.88"/>
   </cols>
   <sheetData>
@@ -516,21 +527,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -552,10 +557,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.4"/>
@@ -575,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -586,36 +591,36 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -626,22 +631,22 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
